--- a/new_Consumo água_01.xlsx
+++ b/new_Consumo água_01.xlsx
@@ -6711,7 +6711,7 @@
     <tableColumn id="3" name="LEITURA 1" dataDxfId="23"/>
     <tableColumn id="4" name="LEITURA 2" dataDxfId="22"/>
     <tableColumn id="5" name="MEDIDOR BBRAUN (M³)" dataDxfId="21"/>
-    <tableColumn id="6" name="Consumo A1_x000a_Av. Eugênio Borges 1062" dataDxfId="20"/>
+    <tableColumn id="6" name="Consumo" dataDxfId="20"/>
     <tableColumn id="7" name="Consumo B1_x000a_Av. Eugênio Borges 1090" dataDxfId="19"/>
     <tableColumn id="8" name="Consumo C1_x000a_Av. Eugênio Borges 1092" dataDxfId="18"/>
     <tableColumn id="9" name="Consumo D1_x000a_Rua Jequitiba, 09" dataDxfId="17"/>
@@ -6741,10 +6741,10 @@
     <tableColumn id="21" name="EFEITO TARIFA" dataDxfId="3">
       <calculatedColumnFormula>IF(Q2="","",Q2*(U2-U1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Nº de dias" dataDxfId="2">
+    <tableColumn id="22" name="Dias" dataDxfId="2">
       <calculatedColumnFormula>D2-C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="REUSO (M³)" dataDxfId="1"/>
+    <tableColumn id="23" name="Teste Formula" dataDxfId="1"/>
     <tableColumn id="24" name="OBSERVAÇÕES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7021,10 +7021,10 @@
   <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -7079,8 +7079,7 @@
       </c>
       <c r="F1" s="9" t="inlineStr">
         <is>
-          <t>Consumo A1
-Av. Eugênio Borges 1062</t>
+          <t>Consumo</t>
         </is>
       </c>
       <c r="G1" s="9" t="inlineStr">
@@ -7179,12 +7178,12 @@
       </c>
       <c r="X1" s="9" t="inlineStr">
         <is>
-          <t>Nº de dias</t>
+          <t>Dias</t>
         </is>
       </c>
       <c r="Y1" s="9" t="inlineStr">
         <is>
-          <t>REUSO (M³)</t>
+          <t>Teste Formula</t>
         </is>
       </c>
       <c r="Z1" s="9" t="inlineStr">
